--- a/BEMFSimulation/ExcelResults/PhaseVoltage1000.xlsx
+++ b/BEMFSimulation/ExcelResults/PhaseVoltage1000.xlsx
@@ -408,13 +408,13 @@
         <v>0.0001666666666666667</v>
       </c>
       <c r="B2">
-        <v>0.7342621693808837</v>
+        <v>1.027115355411168</v>
       </c>
       <c r="C2">
-        <v>65.76110389176033</v>
+        <v>66.666098015686</v>
       </c>
       <c r="D2">
-        <v>-69.25265022100619</v>
+        <v>-70.9144503821512</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>0.0003333333333333333</v>
       </c>
       <c r="B3">
-        <v>4.173235253352225</v>
+        <v>4.192404925771193</v>
       </c>
       <c r="C3">
-        <v>62.74660423437173</v>
+        <v>64.40676683079406</v>
       </c>
       <c r="D3">
-        <v>-68.43532861825346</v>
+        <v>-70.94962815644105</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.0005</v>
       </c>
       <c r="B4">
-        <v>12.46569835835937</v>
+        <v>12.40380265407321</v>
       </c>
       <c r="C4">
-        <v>57.61852665682058</v>
+        <v>60.3071820145211</v>
       </c>
       <c r="D4">
-        <v>-65.64785434888265</v>
+        <v>-68.0683422839577</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0006666666666666666</v>
       </c>
       <c r="B5">
-        <v>22.42778298064513</v>
+        <v>22.60541464137803</v>
       </c>
       <c r="C5">
-        <v>49.9534723900176</v>
+        <v>49.60131210092284</v>
       </c>
       <c r="D5">
-        <v>-63.43860074080352</v>
+        <v>-64.07017712561084</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0008333333333333333</v>
       </c>
       <c r="B6">
-        <v>28.27572292492647</v>
+        <v>29.53083141072607</v>
       </c>
       <c r="C6">
-        <v>41.54262955544092</v>
+        <v>42.32510917440924</v>
       </c>
       <c r="D6">
-        <v>-65.2070776464457</v>
+        <v>-67.74898178500099</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.001</v>
       </c>
       <c r="B7">
-        <v>30.59485501548537</v>
+        <v>31.36764769550673</v>
       </c>
       <c r="C7">
-        <v>36.51092534508577</v>
+        <v>37.82128921053715</v>
       </c>
       <c r="D7">
-        <v>-66.85127139747776</v>
+        <v>-69.07197849836193</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.001166666666666667</v>
       </c>
       <c r="B8">
-        <v>33.16770275531034</v>
+        <v>33.20286419876445</v>
       </c>
       <c r="C8">
-        <v>34.78017791457544</v>
+        <v>35.61669660322397</v>
       </c>
       <c r="D8">
-        <v>-69.01609567047896</v>
+        <v>-69.75006085572169</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.001333333333333334</v>
       </c>
       <c r="B9">
-        <v>34.80815270942955</v>
+        <v>35.40028530820361</v>
       </c>
       <c r="C9">
-        <v>33.27591105626126</v>
+        <v>33.5473517621672</v>
       </c>
       <c r="D9">
-        <v>-69.2592137641893</v>
+        <v>-69.88632032036344</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0015</v>
       </c>
       <c r="B10">
-        <v>36.47011327889804</v>
+        <v>37.66770939673564</v>
       </c>
       <c r="C10">
-        <v>30.63281516598715</v>
+        <v>31.1160744773685</v>
       </c>
       <c r="D10">
-        <v>-67.07997150743971</v>
+        <v>-68.56443556119677</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.001666666666666667</v>
       </c>
       <c r="B11">
-        <v>41.45604377692952</v>
+        <v>42.8735723156587</v>
       </c>
       <c r="C11">
-        <v>28.36307244067982</v>
+        <v>29.72059264091359</v>
       </c>
       <c r="D11">
-        <v>-65.45989949880058</v>
+        <v>-68.79379691624577</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.001833333333333334</v>
       </c>
       <c r="B12">
-        <v>49.9220049668665</v>
+        <v>50.3984707799797</v>
       </c>
       <c r="C12">
-        <v>22.51368913727159</v>
+        <v>22.20212956325032</v>
       </c>
       <c r="D12">
-        <v>-63.64005541119713</v>
+        <v>-64.84419785623895</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.002</v>
       </c>
       <c r="B13">
-        <v>57.50434965868073</v>
+        <v>59.01683257457477</v>
       </c>
       <c r="C13">
-        <v>12.63470095015229</v>
+        <v>12.28853355690771</v>
       </c>
       <c r="D13">
-        <v>-65.71961564365265</v>
+        <v>-67.14589842373611</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.002166666666666667</v>
       </c>
       <c r="B14">
-        <v>62.7146886103353</v>
+        <v>65.14626216676</v>
       </c>
       <c r="C14">
-        <v>4.285011227629587</v>
+        <v>4.225391672398743</v>
       </c>
       <c r="D14">
-        <v>-68.32027948041782</v>
+        <v>-70.87130021596285</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.002333333333333334</v>
       </c>
       <c r="B15">
-        <v>65.64276997562166</v>
+        <v>66.30445692264961</v>
       </c>
       <c r="C15">
-        <v>0.8007052382945079</v>
+        <v>1.120226341526781</v>
       </c>
       <c r="D15">
-        <v>-68.9742220182891</v>
+        <v>-70.40123146971806</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.0025</v>
       </c>
       <c r="B16">
-        <v>69.06090465710702</v>
+        <v>69.93828283491558</v>
       </c>
       <c r="C16">
-        <v>-0.002145335732062215</v>
+        <v>0.01940490529359074</v>
       </c>
       <c r="D16">
-        <v>-68.95488854973092</v>
+        <v>-70.1768989658308</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.002666666666666667</v>
       </c>
       <c r="B17">
-        <v>69.07944617920469</v>
+        <v>70.53398207681521</v>
       </c>
       <c r="C17">
-        <v>-0.7438169245154724</v>
+        <v>-0.9845711088059261</v>
       </c>
       <c r="D17">
-        <v>-65.79059648175384</v>
+        <v>-66.67851899362837</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.002833333333333333</v>
       </c>
       <c r="B18">
-        <v>68.28003044727538</v>
+        <v>71.05729834686166</v>
       </c>
       <c r="C18">
-        <v>-4.126339207114249</v>
+        <v>-4.086509047502435</v>
       </c>
       <c r="D18">
-        <v>-62.73675269684581</v>
+        <v>-64.55544196729002</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.003</v>
       </c>
       <c r="B19">
-        <v>65.82108211282706</v>
+        <v>68.4567084331612</v>
       </c>
       <c r="C19">
-        <v>-12.41071529223331</v>
+        <v>-12.33959895126799</v>
       </c>
       <c r="D19">
-        <v>-57.72462848109875</v>
+        <v>-60.27984123347957</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.003166666666666666</v>
       </c>
       <c r="B20">
-        <v>63.67147363700762</v>
+        <v>64.57789218962874</v>
       </c>
       <c r="C20">
-        <v>-22.43948219091019</v>
+        <v>-22.3829556243188</v>
       </c>
       <c r="D20">
-        <v>-49.99069890610525</v>
+        <v>-49.66243969174236</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.003333333333333333</v>
       </c>
       <c r="B21">
-        <v>65.38620685701284</v>
+        <v>68.14739853044651</v>
       </c>
       <c r="C21">
-        <v>-28.3232227148077</v>
+        <v>-29.48045581756639</v>
       </c>
       <c r="D21">
-        <v>-41.54716154398503</v>
+        <v>-42.51967772724213</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.003499999999999999</v>
       </c>
       <c r="B22">
-        <v>66.98309808300343</v>
+        <v>69.04316270417817</v>
       </c>
       <c r="C22">
-        <v>-30.58784053611835</v>
+        <v>-31.41052236546843</v>
       </c>
       <c r="D22">
-        <v>-36.57320434652489</v>
+        <v>-37.9915444719596</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.003666666666666666</v>
       </c>
       <c r="B23">
-        <v>69.04438788744631</v>
+        <v>69.75209223167013</v>
       </c>
       <c r="C23">
-        <v>-33.1656896974899</v>
+        <v>-33.40075410613277</v>
       </c>
       <c r="D23">
-        <v>-34.82692810064581</v>
+        <v>-35.5997761461363</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.003833333333333332</v>
       </c>
       <c r="B24">
-        <v>69.18456555962887</v>
+        <v>70.18150351524672</v>
       </c>
       <c r="C24">
-        <v>-34.81474752351222</v>
+        <v>-35.59991643359004</v>
       </c>
       <c r="D24">
-        <v>-33.25428551742093</v>
+        <v>-33.47709504595398</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.003999999999999999</v>
       </c>
       <c r="B25">
-        <v>67.16665017982842</v>
+        <v>68.81934522360532</v>
       </c>
       <c r="C25">
-        <v>-36.52187533873824</v>
+        <v>-37.66348884033113</v>
       </c>
       <c r="D25">
-        <v>-30.60224202264417</v>
+        <v>-31.13793915013041</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.004166666666666666</v>
       </c>
       <c r="B26">
-        <v>65.63538495746698</v>
+        <v>68.72217733912071</v>
       </c>
       <c r="C26">
-        <v>-41.49534650541842</v>
+        <v>-42.65695424960609</v>
       </c>
       <c r="D26">
-        <v>-28.37946639229955</v>
+        <v>-29.81547181852132</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.004333333333333332</v>
       </c>
       <c r="B27">
-        <v>63.87153677444725</v>
+        <v>64.52021976174447</v>
       </c>
       <c r="C27">
-        <v>-49.94161474181519</v>
+        <v>-50.23536766983</v>
       </c>
       <c r="D27">
-        <v>-22.54209230494142</v>
+        <v>-22.48433269080835</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.004499999999999999</v>
       </c>
       <c r="B28">
-        <v>66.02887937424836</v>
+        <v>67.17896436769702</v>
       </c>
       <c r="C28">
-        <v>-57.62760650692795</v>
+        <v>-59.17757193835443</v>
       </c>
       <c r="D28">
-        <v>-12.61536390221157</v>
+        <v>-12.368033142202</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.004666666666666665</v>
       </c>
       <c r="B29">
-        <v>68.4581770499676</v>
+        <v>71.27419342146501</v>
       </c>
       <c r="C29">
-        <v>-62.8177359211011</v>
+        <v>-65.29283450845637</v>
       </c>
       <c r="D29">
-        <v>-4.239073263825833</v>
+        <v>-4.122351506987976</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.004833333333333332</v>
       </c>
       <c r="B30">
-        <v>68.93825731545093</v>
+        <v>70.77728514033004</v>
       </c>
       <c r="C30">
-        <v>-65.67793131621153</v>
+        <v>-66.397900141498</v>
       </c>
       <c r="D30">
-        <v>-0.7582757991783651</v>
+        <v>-1.020427062060347</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.004999999999999998</v>
       </c>
       <c r="B31">
-        <v>68.89299890078455</v>
+        <v>69.94623977416002</v>
       </c>
       <c r="C31">
-        <v>-69.01455165794435</v>
+        <v>-69.87456461620239</v>
       </c>
       <c r="D31">
-        <v>0.02483714922396629</v>
+        <v>0.02047872014118712</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.005166666666666665</v>
       </c>
       <c r="B32">
-        <v>65.69408302795144</v>
+        <v>65.9767486656504</v>
       </c>
       <c r="C32">
-        <v>-69.07333756522679</v>
+        <v>-70.38546188252802</v>
       </c>
       <c r="D32">
-        <v>0.7520931371693407</v>
+        <v>0.9360754399091731</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.005333333333333331</v>
       </c>
       <c r="B33">
-        <v>62.63187226847314</v>
+        <v>64.23337113113554</v>
       </c>
       <c r="C33">
-        <v>-68.31045271576495</v>
+        <v>-70.9947753845809</v>
       </c>
       <c r="D33">
-        <v>4.13535161190054</v>
+        <v>4.00743169712961</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.005499999999999998</v>
       </c>
       <c r="B34">
-        <v>57.63691692028348</v>
+        <v>60.49307731633412</v>
       </c>
       <c r="C34">
-        <v>-65.80713335785595</v>
+        <v>-68.34478312444693</v>
       </c>
       <c r="D34">
-        <v>12.38570577918763</v>
+        <v>12.33317755296962</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.005666666666666664</v>
       </c>
       <c r="B35">
-        <v>49.96827672246263</v>
+        <v>49.7486283718987</v>
       </c>
       <c r="C35">
-        <v>-63.62088484599018</v>
+        <v>-64.2308995007522</v>
       </c>
       <c r="D35">
-        <v>22.40860264116212</v>
+        <v>22.4128911249788</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.005833333333333331</v>
       </c>
       <c r="B36">
-        <v>41.57469860493068</v>
+        <v>42.28718033039438</v>
       </c>
       <c r="C36">
-        <v>-65.33142236621941</v>
+        <v>-67.87697280971982</v>
       </c>
       <c r="D36">
-        <v>28.29523897622566</v>
+        <v>29.44662791595595</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.005999999999999998</v>
       </c>
       <c r="B37">
-        <v>36.57013796494374</v>
+        <v>37.79427686870771</v>
       </c>
       <c r="C37">
-        <v>-67.02656262467865</v>
+        <v>-69.10302510232849</v>
       </c>
       <c r="D37">
-        <v>30.60862895558286</v>
+        <v>31.44253003021555</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.006166666666666664</v>
       </c>
       <c r="B38">
-        <v>34.80631472200663</v>
+        <v>35.61607124650798</v>
       </c>
       <c r="C38">
-        <v>-69.09405095079319</v>
+        <v>-69.73314561867645</v>
       </c>
       <c r="D38">
-        <v>33.18514387930139</v>
+        <v>33.33734315170881</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.006333333333333331</v>
       </c>
       <c r="B39">
-        <v>33.27852648833385</v>
+        <v>33.63252624755079</v>
       </c>
       <c r="C39">
-        <v>-69.29408777287685</v>
+        <v>-70.04437047497636</v>
       </c>
       <c r="D39">
-        <v>34.88181350343511</v>
+        <v>35.55226643516333</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.006499999999999997</v>
       </c>
       <c r="B40">
-        <v>30.59617053448843</v>
+        <v>31.18435827815361</v>
       </c>
       <c r="C40">
-        <v>-67.04613399538589</v>
+        <v>-68.70024497851917</v>
       </c>
       <c r="D40">
-        <v>36.49654615562731</v>
+        <v>37.65611968976832</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.006666666666666664</v>
       </c>
       <c r="B41">
-        <v>28.37284029545001</v>
+        <v>29.84473353785836</v>
       </c>
       <c r="C41">
-        <v>-65.49311568143619</v>
+        <v>-69.00188973543099</v>
       </c>
       <c r="D41">
-        <v>41.46872268251245</v>
+        <v>42.85380496112726</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.00683333333333333</v>
       </c>
       <c r="B42">
-        <v>22.55829002032106</v>
+        <v>22.31082242566962</v>
       </c>
       <c r="C42">
-        <v>-63.72157696102275</v>
+        <v>-64.74873801020205</v>
       </c>
       <c r="D42">
-        <v>49.93451506764155</v>
+        <v>50.42466796977354</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.006999999999999997</v>
       </c>
       <c r="B43">
-        <v>12.67297482135699</v>
+        <v>12.28899861691404</v>
       </c>
       <c r="C43">
-        <v>-65.78218352864617</v>
+        <v>-67.28220812470592</v>
       </c>
       <c r="D43">
-        <v>57.63170482482841</v>
+        <v>59.26865588695166</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.007166666666666663</v>
       </c>
       <c r="B44">
-        <v>4.299337229258738</v>
+        <v>4.112620231197517</v>
       </c>
       <c r="C44">
-        <v>-68.37380200996292</v>
+        <v>-71.2443805669344</v>
       </c>
       <c r="D44">
-        <v>62.88836705918852</v>
+        <v>65.24901004027154</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.00733333333333333</v>
       </c>
       <c r="B45">
-        <v>0.8027260740902098</v>
+        <v>1.034788134564035</v>
       </c>
       <c r="C45">
-        <v>-69.0473396680932</v>
+        <v>-70.42909737739043</v>
       </c>
       <c r="D45">
-        <v>65.84030775770967</v>
+        <v>66.02737701557761</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.007499999999999996</v>
       </c>
       <c r="B46">
-        <v>0.009702977700976056</v>
+        <v>0.06775512442089293</v>
       </c>
       <c r="C46">
-        <v>-69.0609627696642</v>
+        <v>-70.33289603336115</v>
       </c>
       <c r="D46">
-        <v>69.2487395469357</v>
+        <v>70.35144080645401</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.007666666666666663</v>
       </c>
       <c r="B47">
-        <v>-0.7367486143711188</v>
+        <v>-1.029892736502114</v>
       </c>
       <c r="C47">
-        <v>-65.75479483240137</v>
+        <v>-66.66167613942524</v>
       </c>
       <c r="D47">
-        <v>69.25095943498475</v>
+        <v>70.91448458669721</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.007833333333333329</v>
       </c>
       <c r="B48">
-        <v>-4.181172673565325</v>
+        <v>-4.200111002559543</v>
       </c>
       <c r="C48">
-        <v>-62.7432206102043</v>
+        <v>-64.40650852140524</v>
       </c>
       <c r="D48">
-        <v>68.43409085582337</v>
+        <v>70.94977731551405</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.007999999999999997</v>
       </c>
       <c r="B49">
-        <v>-12.48124387063415</v>
+        <v>-12.41923498309719</v>
       </c>
       <c r="C49">
-        <v>-57.60806658376527</v>
+        <v>-60.29155428036032</v>
       </c>
       <c r="D49">
-        <v>65.64234163505589</v>
+        <v>68.0594397434655</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.008166666666666664</v>
       </c>
       <c r="B50">
-        <v>-22.43908304105852</v>
+        <v>-22.6180574385372</v>
       </c>
       <c r="C50">
-        <v>-49.94118555843727</v>
+        <v>-49.58915037440809</v>
       </c>
       <c r="D50">
-        <v>63.43857702446425</v>
+        <v>64.07133449185153</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.008333333333333331</v>
       </c>
       <c r="B51">
-        <v>-28.28135846756452</v>
+        <v>-29.53741544661007</v>
       </c>
       <c r="C51">
-        <v>-41.53253000058383</v>
+        <v>-42.31637664194751</v>
       </c>
       <c r="D51">
-        <v>65.21063319293278</v>
+        <v>67.75466437915607</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.008499999999999999</v>
       </c>
       <c r="B52">
-        <v>-30.59749955844265</v>
+        <v>-31.3680657391055</v>
       </c>
       <c r="C52">
-        <v>-36.50626944114155</v>
+        <v>-37.81651128985681</v>
       </c>
       <c r="D52">
-        <v>66.85329146022853</v>
+        <v>69.07087841286328</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.008666666666666666</v>
       </c>
       <c r="B53">
-        <v>-33.17153909165344</v>
+        <v>-33.2071486403869</v>
       </c>
       <c r="C53">
-        <v>-34.77902204693251</v>
+        <v>-35.6152919483696</v>
       </c>
       <c r="D53">
-        <v>69.01922829235876</v>
+        <v>69.7530569928427</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.008833333333333334</v>
       </c>
       <c r="B54">
-        <v>-34.80950344641898</v>
+        <v>-35.40243574691917</v>
       </c>
       <c r="C54">
-        <v>-33.27236416130003</v>
+        <v>-33.54299250096324</v>
       </c>
       <c r="D54">
-        <v>69.25674770746812</v>
+        <v>69.88405947668954</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.009000000000000001</v>
       </c>
       <c r="B55">
-        <v>-36.47467727789977</v>
+        <v>-37.67278920748116</v>
       </c>
       <c r="C55">
-        <v>-30.62997457851791</v>
+        <v>-31.11305197979766</v>
       </c>
       <c r="D55">
-        <v>67.07771776899565</v>
+        <v>68.56312205538669</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.009166666666666668</v>
       </c>
       <c r="B56">
-        <v>-41.46582177796804</v>
+        <v>-42.88323749097766</v>
       </c>
       <c r="C56">
-        <v>-28.35739246374469</v>
+        <v>-29.71592174019474</v>
       </c>
       <c r="D56">
-        <v>65.45611846106711</v>
+        <v>68.79189721532006</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.009333333333333336</v>
       </c>
       <c r="B57">
-        <v>-49.93453156776381</v>
+        <v>-50.40937687987829</v>
       </c>
       <c r="C57">
-        <v>-22.50255789048278</v>
+        <v>-22.18866464735001</v>
       </c>
       <c r="D57">
-        <v>63.64016959938142</v>
+        <v>64.84029824195544</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.009500000000000003</v>
       </c>
       <c r="B58">
-        <v>-57.5144328709647</v>
+        <v>-59.02968737214132</v>
       </c>
       <c r="C58">
-        <v>-12.61906850901623</v>
+        <v>-12.27382680717162</v>
       </c>
       <c r="D58">
-        <v>65.72453672676053</v>
+        <v>67.15354788921358</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.009666666666666671</v>
       </c>
       <c r="B59">
-        <v>-62.71902827032292</v>
+        <v>-65.14939782665876</v>
       </c>
       <c r="C59">
-        <v>-4.277101289585528</v>
+        <v>-4.217804097003953</v>
       </c>
       <c r="D59">
-        <v>68.322264245808</v>
+        <v>70.87295387029479</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.009833333333333338</v>
       </c>
       <c r="B60">
-        <v>-65.64802740892296</v>
+        <v>-66.308519957866</v>
       </c>
       <c r="C60">
-        <v>-0.7980611353435862</v>
+        <v>-1.117556900785549</v>
       </c>
       <c r="D60">
-        <v>68.97463632686488</v>
+        <v>70.40063909147521</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.01000000000000001</v>
       </c>
       <c r="B61">
-        <v>-69.0635728966719</v>
+        <v>-69.941964975506</v>
       </c>
       <c r="C61">
-        <v>0.002392198326928163</v>
+        <v>-0.01871235185330056</v>
       </c>
       <c r="D61">
-        <v>68.95285656537607</v>
+        <v>70.17380362161839</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.01016666666666667</v>
       </c>
       <c r="B62">
-        <v>-69.07842913799128</v>
+        <v>-70.53401259572685</v>
       </c>
       <c r="C62">
-        <v>0.7463406277640194</v>
+        <v>0.9870400745312646</v>
       </c>
       <c r="D62">
-        <v>65.78509017472767</v>
+        <v>66.67382778037003</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.01033333333333334</v>
       </c>
       <c r="B63">
-        <v>-68.2783311137616</v>
+        <v>-71.05850493203732</v>
       </c>
       <c r="C63">
-        <v>4.134183649292078</v>
+        <v>4.094282210724415</v>
       </c>
       <c r="D63">
-        <v>62.73278024361603</v>
+        <v>64.55559823033524</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.01050000000000001</v>
       </c>
       <c r="B64">
-        <v>-65.81629915418533</v>
+        <v>-68.44793515016404</v>
       </c>
       <c r="C64">
-        <v>12.42635296330202</v>
+        <v>12.35496708602596</v>
       </c>
       <c r="D64">
-        <v>57.71454194139869</v>
+        <v>60.26385930869725</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.01066666666666667</v>
       </c>
       <c r="B65">
-        <v>-63.67129496453664</v>
+        <v>-64.57897297351617</v>
       </c>
       <c r="C65">
-        <v>22.45098990129263</v>
+        <v>22.39561257826123</v>
       </c>
       <c r="D65">
-        <v>49.97818880215824</v>
+        <v>49.65035828991188</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.01083333333333334</v>
       </c>
       <c r="B66">
-        <v>-65.38951044828293</v>
+        <v>-68.15305572837825</v>
       </c>
       <c r="C66">
-        <v>28.32856232357234</v>
+        <v>29.4873852201448</v>
       </c>
       <c r="D66">
-        <v>41.53691828892853</v>
+        <v>42.51154946846761</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.01100000000000001</v>
       </c>
       <c r="B67">
-        <v>-66.98534015237196</v>
+        <v>-69.04181862583434</v>
       </c>
       <c r="C67">
-        <v>30.59072885419073</v>
+        <v>31.41137907186842</v>
       </c>
       <c r="D67">
-        <v>36.56884250810477</v>
+        <v>37.98660813815525</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.01116666666666668</v>
       </c>
       <c r="B68">
-        <v>-69.04718949308892</v>
+        <v>-69.75501564229917</v>
       </c>
       <c r="C68">
-        <v>33.16941287659975</v>
+        <v>33.40472605305914</v>
       </c>
       <c r="D68">
-        <v>34.82554790821063</v>
+        <v>35.59785773290844</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.01133333333333334</v>
       </c>
       <c r="B69">
-        <v>-69.18213830913619</v>
+        <v>-70.17935280439329</v>
       </c>
       <c r="C69">
-        <v>34.81619852930973</v>
+        <v>35.60196371681368</v>
       </c>
       <c r="D69">
-        <v>33.25074849461512</v>
+        <v>33.47273970319642</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.01150000000000001</v>
       </c>
       <c r="B70">
-        <v>-67.16447127578978</v>
+        <v>-68.81789844337465</v>
       </c>
       <c r="C70">
-        <v>36.52635401117199</v>
+        <v>37.66816849403997</v>
       </c>
       <c r="D70">
-        <v>30.59923436430745</v>
+        <v>31.13510027933919</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.01166666666666668</v>
       </c>
       <c r="B71">
-        <v>-65.6317966960417</v>
+        <v>-68.72006375597783</v>
       </c>
       <c r="C71">
-        <v>41.50513896156871</v>
+        <v>42.66673490883916</v>
       </c>
       <c r="D71">
-        <v>28.37394072812083</v>
+        <v>29.81123380232598</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.01183333333333335</v>
       </c>
       <c r="B72">
-        <v>-63.8717080398203</v>
+        <v>-64.51569793842826</v>
       </c>
       <c r="C72">
-        <v>49.95423806445537</v>
+        <v>50.24625621705928</v>
       </c>
       <c r="D72">
-        <v>22.53090395576663</v>
+        <v>22.47072225575394</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.01200000000000001</v>
       </c>
       <c r="B73">
-        <v>-66.03404727647656</v>
+        <v>-67.18763199882791</v>
       </c>
       <c r="C73">
-        <v>57.63790966023147</v>
+        <v>59.19073345634394</v>
       </c>
       <c r="D73">
-        <v>12.59979015785495</v>
+        <v>12.35284980312598</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.01216666666666668</v>
       </c>
       <c r="B74">
-        <v>-68.45906514471542</v>
+        <v>-71.27594354908042</v>
       </c>
       <c r="C74">
-        <v>62.82135179652393</v>
+        <v>65.29593065073558</v>
       </c>
       <c r="D74">
-        <v>4.231001975936122</v>
+        <v>4.114759612270924</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.01233333333333335</v>
       </c>
       <c r="B75">
-        <v>-68.9394121056006</v>
+        <v>-70.77608908519045</v>
       </c>
       <c r="C75">
-        <v>65.68388451660626</v>
+        <v>66.40164269668522</v>
       </c>
       <c r="D75">
-        <v>0.7556846741078593</v>
+        <v>1.017816592709941</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.01250000000000002</v>
       </c>
       <c r="B76">
-        <v>-68.89077387629881</v>
+        <v>-69.9427223926112</v>
       </c>
       <c r="C76">
-        <v>69.01702286589904</v>
+        <v>69.8783374659228</v>
       </c>
       <c r="D76">
-        <v>-0.02512496538836784</v>
+        <v>-0.0211214374708224</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.01266666666666668</v>
       </c>
       <c r="B77">
-        <v>-65.68789353241166</v>
+        <v>-65.97165800730116</v>
       </c>
       <c r="C77">
-        <v>69.07175810390906</v>
+        <v>70.38550968188444</v>
       </c>
       <c r="D77">
-        <v>-0.7544714238387762</v>
+        <v>-0.9384356727676346</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.01283333333333335</v>
       </c>
       <c r="B78">
-        <v>-62.62855297114564</v>
+        <v>-64.23388267455115</v>
       </c>
       <c r="C78">
-        <v>68.30943039787682</v>
+        <v>70.99547288104476</v>
       </c>
       <c r="D78">
-        <v>-4.143250336465121</v>
+        <v>-4.014929906743931</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.01300000000000002</v>
       </c>
       <c r="B79">
-        <v>-57.62664422179436</v>
+        <v>-60.47817656821483</v>
       </c>
       <c r="C79">
-        <v>65.80209317727913</v>
+        <v>68.33642574122797</v>
       </c>
       <c r="D79">
-        <v>-12.40131948592949</v>
+        <v>-12.34879159713279</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.01316666666666669</v>
       </c>
       <c r="B80">
-        <v>-49.95601644919226</v>
+        <v>-49.73587705600885</v>
       </c>
       <c r="C80">
-        <v>63.62071944115986</v>
+        <v>64.23158504287998</v>
       </c>
       <c r="D80">
-        <v>-22.42003141810095</v>
+        <v>-22.42565966161278</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.01333333333333335</v>
       </c>
       <c r="B81">
-        <v>-41.56418878678142</v>
+        <v>-42.27890559271003</v>
       </c>
       <c r="C81">
-        <v>65.33451812284544</v>
+        <v>67.88327429991826</v>
       </c>
       <c r="D81">
-        <v>-28.3005610993935</v>
+        <v>-29.45368835382198</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.01350000000000002</v>
       </c>
       <c r="B82">
-        <v>-36.56570237406698</v>
+        <v>-37.78923823160835</v>
       </c>
       <c r="C82">
-        <v>67.02879444283539</v>
+        <v>69.10137648607137</v>
       </c>
       <c r="D82">
-        <v>-30.6113824666262</v>
+        <v>-31.44307749219852</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.01366666666666669</v>
       </c>
       <c r="B83">
-        <v>-34.80484663469874</v>
+        <v>-35.61472974431116</v>
       </c>
       <c r="C83">
-        <v>69.0965900726774</v>
+        <v>69.73616971881516</v>
       </c>
       <c r="D83">
-        <v>-33.18876628291795</v>
+        <v>-33.34144806450709</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.01383333333333336</v>
       </c>
       <c r="B84">
-        <v>-33.27495160376015</v>
+        <v>-33.62816109104605</v>
       </c>
       <c r="C84">
-        <v>69.29167138205908</v>
+        <v>70.04198594123133</v>
       </c>
       <c r="D84">
-        <v>-34.88320913415544</v>
+        <v>-35.55425623188363</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.01400000000000002</v>
       </c>
       <c r="B85">
-        <v>-30.59346118482831</v>
+        <v>-31.18138898823883</v>
       </c>
       <c r="C85">
-        <v>67.04411701716026</v>
+        <v>68.69923225978172</v>
       </c>
       <c r="D85">
-        <v>-36.50120500855292</v>
+        <v>-37.66104637088208</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.01416666666666669</v>
       </c>
       <c r="B86">
-        <v>-28.36740485919059</v>
+        <v>-29.84026619700514</v>
       </c>
       <c r="C86">
-        <v>65.48986840164879</v>
+        <v>68.99986270593293</v>
       </c>
       <c r="D86">
-        <v>-41.47885253673006</v>
+        <v>-42.86355060787478</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.01433333333333336</v>
       </c>
       <c r="B87">
-        <v>-22.54701277587279</v>
+        <v>-22.29719206911049</v>
       </c>
       <c r="C87">
-        <v>63.72132667816336</v>
+        <v>64.74474279846756</v>
       </c>
       <c r="D87">
-        <v>-49.94694527041472</v>
+        <v>-50.43599412229441</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.01450000000000003</v>
       </c>
       <c r="B88">
-        <v>-12.65756662398265</v>
+        <v>-12.27394644995633</v>
       </c>
       <c r="C88">
-        <v>65.78735701531183</v>
+        <v>67.29039095172301</v>
       </c>
       <c r="D88">
-        <v>-57.64207286417364</v>
+        <v>-59.28146829231082</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.01466666666666669</v>
       </c>
       <c r="B89">
-        <v>-4.291242471307299</v>
+        <v>-4.104972157061987</v>
       </c>
       <c r="C89">
-        <v>68.37526661816968</v>
+        <v>71.24567182079842</v>
       </c>
       <c r="D89">
-        <v>-62.89228448732914</v>
+        <v>-65.25137300005758</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.01483333333333336</v>
       </c>
       <c r="B90">
-        <v>-0.8001382316701888</v>
+        <v>-1.032434548776107</v>
       </c>
       <c r="C90">
-        <v>69.04823451115087</v>
+        <v>70.42836543822477</v>
       </c>
       <c r="D90">
-        <v>-65.84598224258515</v>
+        <v>-66.03199012904557</v>
       </c>
     </row>
   </sheetData>

--- a/BEMFSimulation/ExcelResults/PhaseVoltage1000.xlsx
+++ b/BEMFSimulation/ExcelResults/PhaseVoltage1000.xlsx
@@ -408,13 +408,13 @@
         <v>0.0001666666666666667</v>
       </c>
       <c r="B2">
-        <v>1.027115355411168</v>
+        <v>0.7741574951659891</v>
       </c>
       <c r="C2">
-        <v>66.666098015686</v>
+        <v>67.36823073427045</v>
       </c>
       <c r="D2">
-        <v>-70.9144503821512</v>
+        <v>-70.97772009318076</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>0.0003333333333333333</v>
       </c>
       <c r="B3">
-        <v>4.192404925771193</v>
+        <v>4.298087274060281</v>
       </c>
       <c r="C3">
-        <v>64.40676683079406</v>
+        <v>64.38046454399563</v>
       </c>
       <c r="D3">
-        <v>-70.94962815644105</v>
+        <v>-70.23182902852525</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.0005</v>
       </c>
       <c r="B4">
-        <v>12.40380265407321</v>
+        <v>12.78970241895203</v>
       </c>
       <c r="C4">
-        <v>60.3071820145211</v>
+        <v>59.13315337440078</v>
       </c>
       <c r="D4">
-        <v>-68.0683422839577</v>
+        <v>-67.42571347318524</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0006666666666666666</v>
       </c>
       <c r="B5">
-        <v>22.60541464137803</v>
+        <v>22.97356686142088</v>
       </c>
       <c r="C5">
-        <v>49.60131210092284</v>
+        <v>51.15297739661795</v>
       </c>
       <c r="D5">
-        <v>-64.07017712561084</v>
+        <v>-65.00314939005838</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0008333333333333333</v>
       </c>
       <c r="B6">
-        <v>29.53083141072607</v>
+        <v>29.01013799213759</v>
       </c>
       <c r="C6">
-        <v>42.32510917440924</v>
+        <v>42.59760489595283</v>
       </c>
       <c r="D6">
-        <v>-67.74898178500099</v>
+        <v>-66.89245939325468</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.001</v>
       </c>
       <c r="B7">
-        <v>31.36764769550673</v>
+        <v>31.31964009819674</v>
       </c>
       <c r="C7">
-        <v>37.82128921053715</v>
+        <v>37.39529483717919</v>
       </c>
       <c r="D7">
-        <v>-69.07197849836193</v>
+        <v>-68.43894962815676</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.001166666666666667</v>
       </c>
       <c r="B8">
-        <v>33.20286419876445</v>
+        <v>34.08078053825606</v>
       </c>
       <c r="C8">
-        <v>35.61669660322397</v>
+        <v>35.76335700994596</v>
       </c>
       <c r="D8">
-        <v>-69.75006085572169</v>
+        <v>-70.97379684391973</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.001333333333333334</v>
       </c>
       <c r="B9">
-        <v>35.40028530820361</v>
+        <v>35.70403977361276</v>
       </c>
       <c r="C9">
-        <v>33.5473517621672</v>
+        <v>34.11619137425492</v>
       </c>
       <c r="D9">
-        <v>-69.88632032036344</v>
+        <v>-71.05894827815276</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0015</v>
       </c>
       <c r="B10">
-        <v>37.66770939673564</v>
+        <v>37.42626465098847</v>
       </c>
       <c r="C10">
-        <v>31.1160744773685</v>
+        <v>31.37700293385073</v>
       </c>
       <c r="D10">
-        <v>-68.56443556119677</v>
+        <v>-68.76470577440188</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.001666666666666667</v>
       </c>
       <c r="B11">
-        <v>42.8735723156587</v>
+        <v>42.57053008827838</v>
       </c>
       <c r="C11">
-        <v>29.72059264091359</v>
+        <v>29.11814442958557</v>
       </c>
       <c r="D11">
-        <v>-68.79379691624577</v>
+        <v>-67.21289500953533</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.001833333333333334</v>
       </c>
       <c r="B12">
-        <v>50.3984707799797</v>
+        <v>51.18778952362638</v>
       </c>
       <c r="C12">
-        <v>22.20212956325032</v>
+        <v>23.0351681871209</v>
       </c>
       <c r="D12">
-        <v>-64.84419785623895</v>
+        <v>-65.23848659553582</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.002</v>
       </c>
       <c r="B13">
-        <v>59.01683257457477</v>
+        <v>58.92289887477517</v>
       </c>
       <c r="C13">
-        <v>12.28853355690771</v>
+        <v>12.93267693552827</v>
       </c>
       <c r="D13">
-        <v>-67.14589842373611</v>
+        <v>-67.40844767770798</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.002166666666666667</v>
       </c>
       <c r="B14">
-        <v>65.14626216676</v>
+        <v>64.30666370704601</v>
       </c>
       <c r="C14">
-        <v>4.225391672398743</v>
+        <v>4.390923411940473</v>
       </c>
       <c r="D14">
-        <v>-70.87130021596285</v>
+        <v>-70.0487092300755</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.002333333333333334</v>
       </c>
       <c r="B15">
-        <v>66.30445692264961</v>
+        <v>67.29034817348642</v>
       </c>
       <c r="C15">
-        <v>1.120226341526781</v>
+        <v>0.8136855711228519</v>
       </c>
       <c r="D15">
-        <v>-70.40123146971806</v>
+        <v>-70.68808820863359</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.0025</v>
       </c>
       <c r="B16">
-        <v>69.93828283491558</v>
+        <v>70.9340669443484</v>
       </c>
       <c r="C16">
-        <v>0.01940490529359074</v>
+        <v>-0.01271225069252035</v>
       </c>
       <c r="D16">
-        <v>-70.1768989658308</v>
+        <v>-70.8782133524448</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.002666666666666667</v>
       </c>
       <c r="B17">
-        <v>70.53398207681521</v>
+        <v>70.7681521206252</v>
       </c>
       <c r="C17">
-        <v>-0.9845711088059261</v>
+        <v>-0.7683290762575123</v>
       </c>
       <c r="D17">
-        <v>-66.67851899362837</v>
+        <v>-67.33538944937001</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.002833333333333333</v>
       </c>
       <c r="B18">
-        <v>71.05729834686166</v>
+        <v>70.07332915918624</v>
       </c>
       <c r="C18">
-        <v>-4.086509047502435</v>
+        <v>-4.249191695909621</v>
       </c>
       <c r="D18">
-        <v>-64.55544196729002</v>
+        <v>-64.37293959623365</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.003</v>
       </c>
       <c r="B19">
-        <v>68.4567084331612</v>
+        <v>67.61136040203411</v>
       </c>
       <c r="C19">
-        <v>-12.33959895126799</v>
+        <v>-12.73092735297007</v>
       </c>
       <c r="D19">
-        <v>-60.27984123347957</v>
+        <v>-59.25748663549558</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.003166666666666666</v>
       </c>
       <c r="B20">
-        <v>64.57789218962874</v>
+        <v>65.27025339397055</v>
       </c>
       <c r="C20">
-        <v>-22.3829556243188</v>
+        <v>-22.99471553064314</v>
       </c>
       <c r="D20">
-        <v>-49.66243969174236</v>
+        <v>-51.19923439678404</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.003333333333333333</v>
       </c>
       <c r="B21">
-        <v>68.14739853044651</v>
+        <v>67.0677151813386</v>
       </c>
       <c r="C21">
-        <v>-29.48045581756639</v>
+        <v>-29.04711986621081</v>
       </c>
       <c r="D21">
-        <v>-42.51967772724213</v>
+        <v>-42.60114678442909</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.003499999999999999</v>
       </c>
       <c r="B22">
-        <v>69.04316270417817</v>
+        <v>68.57598917207029</v>
       </c>
       <c r="C22">
-        <v>-31.41052236546843</v>
+        <v>-31.29984486511833</v>
       </c>
       <c r="D22">
-        <v>-37.9915444719596</v>
+        <v>-37.44337987441809</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.003666666666666666</v>
       </c>
       <c r="B23">
-        <v>69.75209223167013</v>
+        <v>70.99170050673776</v>
       </c>
       <c r="C23">
-        <v>-33.40075410613277</v>
+        <v>-34.09408199525524</v>
       </c>
       <c r="D23">
-        <v>-35.5997761461363</v>
+        <v>-35.79374228746241</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.003833333333333332</v>
       </c>
       <c r="B24">
-        <v>70.18150351524672</v>
+        <v>70.97186098859444</v>
       </c>
       <c r="C24">
-        <v>-35.59991643359004</v>
+        <v>-35.72122695970847</v>
       </c>
       <c r="D24">
-        <v>-33.47709504595398</v>
+        <v>-34.07422180117401</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.003999999999999999</v>
       </c>
       <c r="B25">
-        <v>68.81934522360532</v>
+        <v>68.84474338530798</v>
       </c>
       <c r="C25">
-        <v>-37.66348884033113</v>
+        <v>-37.47829672926071</v>
       </c>
       <c r="D25">
-        <v>-31.13793915013041</v>
+        <v>-31.33546486486269</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.004166666666666666</v>
       </c>
       <c r="B26">
-        <v>68.72217733912071</v>
+        <v>67.38005279682815</v>
       </c>
       <c r="C26">
-        <v>-42.65695424960609</v>
+        <v>-42.59818768974411</v>
       </c>
       <c r="D26">
-        <v>-29.81547181852132</v>
+        <v>-29.1292992055088</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.004333333333333332</v>
       </c>
       <c r="B27">
-        <v>64.52021976174447</v>
+        <v>65.48707718175548</v>
       </c>
       <c r="C27">
-        <v>-50.23536766983</v>
+        <v>-51.20407083232512</v>
       </c>
       <c r="D27">
-        <v>-22.48433269080835</v>
+        <v>-23.06763192727282</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.004499999999999999</v>
       </c>
       <c r="B28">
-        <v>67.17896436769702</v>
+        <v>67.7080414946529</v>
       </c>
       <c r="C28">
-        <v>-59.17757193835443</v>
+        <v>-59.04990201940686</v>
       </c>
       <c r="D28">
-        <v>-12.368033142202</v>
+        <v>-12.90896530919211</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.004666666666666665</v>
       </c>
       <c r="B29">
-        <v>71.27419342146501</v>
+        <v>70.17038398057237</v>
       </c>
       <c r="C29">
-        <v>-65.29283450845637</v>
+        <v>-64.40827537792399</v>
       </c>
       <c r="D29">
-        <v>-4.122351506987976</v>
+        <v>-4.33811041930951</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.004833333333333332</v>
       </c>
       <c r="B30">
-        <v>70.77728514033004</v>
+        <v>70.69541291199522</v>
       </c>
       <c r="C30">
-        <v>-66.397900141498</v>
+        <v>-67.35380715412118</v>
       </c>
       <c r="D30">
-        <v>-1.020427062060347</v>
+        <v>-0.7822159948071838</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.004999999999999998</v>
       </c>
       <c r="B31">
-        <v>69.94623977416002</v>
+        <v>70.8222168234976</v>
       </c>
       <c r="C31">
-        <v>-69.87456461620239</v>
+        <v>-70.89257850479564</v>
       </c>
       <c r="D31">
-        <v>0.02047872014118712</v>
+        <v>0.02672248415075407</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.005166666666666665</v>
       </c>
       <c r="B32">
-        <v>65.9767486656504</v>
+        <v>67.22808061564398</v>
       </c>
       <c r="C32">
-        <v>-70.38546188252802</v>
+        <v>-70.74366918608959</v>
       </c>
       <c r="D32">
-        <v>0.9360754399091731</v>
+        <v>0.7827798819147469</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.005333333333333331</v>
       </c>
       <c r="B33">
-        <v>64.23337113113554</v>
+        <v>64.23290907995289</v>
       </c>
       <c r="C33">
-        <v>-70.9947753845809</v>
+        <v>-70.08030700723805</v>
       </c>
       <c r="D33">
-        <v>4.00743169712961</v>
+        <v>4.269936204737285</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.005499999999999998</v>
       </c>
       <c r="B34">
-        <v>60.49307731633412</v>
+        <v>59.15164545244309</v>
       </c>
       <c r="C34">
-        <v>-68.34478312444693</v>
+        <v>-67.57869029148365</v>
       </c>
       <c r="D34">
-        <v>12.33317755296962</v>
+        <v>12.70836457884839</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.005666666666666664</v>
       </c>
       <c r="B35">
-        <v>49.7486283718987</v>
+        <v>51.18955212242732</v>
       </c>
       <c r="C35">
-        <v>-64.2308995007522</v>
+        <v>-65.21027878647446</v>
       </c>
       <c r="D35">
-        <v>22.4128911249788</v>
+        <v>22.94975608426162</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.005833333333333331</v>
       </c>
       <c r="B36">
-        <v>42.28718033039438</v>
+        <v>42.62392029615592</v>
       </c>
       <c r="C36">
-        <v>-67.87697280971982</v>
+        <v>-66.98856263082693</v>
       </c>
       <c r="D36">
-        <v>29.44662791595595</v>
+        <v>29.01897725490835</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.005999999999999998</v>
       </c>
       <c r="B37">
-        <v>37.79427686870771</v>
+        <v>37.43139697789916</v>
       </c>
       <c r="C37">
-        <v>-69.10302510232849</v>
+        <v>-68.60467153888968</v>
       </c>
       <c r="D37">
-        <v>31.44253003021555</v>
+        <v>31.32478305417519</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.006166666666666664</v>
       </c>
       <c r="B38">
-        <v>35.61607124650798</v>
+        <v>35.76314241196089</v>
       </c>
       <c r="C38">
-        <v>-69.73314561867645</v>
+        <v>-71.01980904701988</v>
       </c>
       <c r="D38">
-        <v>33.33734315170881</v>
+        <v>34.10535271382007</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.006333333333333331</v>
       </c>
       <c r="B39">
-        <v>33.63252624755079</v>
+        <v>34.12437102460392</v>
       </c>
       <c r="C39">
-        <v>-70.04437047497636</v>
+        <v>-71.07368604683995</v>
       </c>
       <c r="D39">
-        <v>35.55226643516333</v>
+        <v>35.76538816173078</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.006499999999999997</v>
       </c>
       <c r="B40">
-        <v>31.18435827815361</v>
+        <v>31.3399455744913</v>
       </c>
       <c r="C40">
-        <v>-68.70024497851917</v>
+        <v>-68.68492654750361</v>
       </c>
       <c r="D40">
-        <v>37.65611968976832</v>
+        <v>37.42817323290362</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.006666666666666664</v>
       </c>
       <c r="B41">
-        <v>29.84473353785836</v>
+        <v>29.11888102774832</v>
       </c>
       <c r="C41">
-        <v>-69.00188973543099</v>
+        <v>-67.23135888896101</v>
       </c>
       <c r="D41">
-        <v>42.85380496112726</v>
+        <v>42.57147570158118</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.00683333333333333</v>
       </c>
       <c r="B42">
-        <v>22.31082242566962</v>
+        <v>23.06620592935002</v>
       </c>
       <c r="C42">
-        <v>-64.74873801020205</v>
+        <v>-65.34123388990052</v>
       </c>
       <c r="D42">
-        <v>50.42466796977354</v>
+        <v>51.22191998153239</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.006999999999999997</v>
       </c>
       <c r="B43">
-        <v>12.28899861691404</v>
+        <v>12.97192959318086</v>
       </c>
       <c r="C43">
-        <v>-67.28220812470592</v>
+        <v>-67.46761014942086</v>
       </c>
       <c r="D43">
-        <v>59.26865588695166</v>
+        <v>59.05913189614962</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.007166666666666663</v>
       </c>
       <c r="B44">
-        <v>4.112620231197517</v>
+        <v>4.407345552917136</v>
       </c>
       <c r="C44">
-        <v>-71.2443805669344</v>
+        <v>-70.06191022032912</v>
       </c>
       <c r="D44">
-        <v>65.24901004027154</v>
+        <v>64.45564677741442</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.00733333333333333</v>
       </c>
       <c r="B45">
-        <v>1.034788134564035</v>
+        <v>0.8189168288567916</v>
       </c>
       <c r="C45">
-        <v>-70.42909737739043</v>
+        <v>-70.76191430072681</v>
       </c>
       <c r="D45">
-        <v>66.02737701557761</v>
+        <v>67.49395138303242</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.007499999999999996</v>
       </c>
       <c r="B46">
-        <v>0.06775512442089293</v>
+        <v>-0.003730968703152815</v>
       </c>
       <c r="C46">
-        <v>-70.33289603336115</v>
+        <v>-71.00615379111518</v>
       </c>
       <c r="D46">
-        <v>70.35144080645401</v>
+        <v>71.14383767120876</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.007666666666666663</v>
       </c>
       <c r="B47">
-        <v>-1.029892736502114</v>
+        <v>-0.7767646260815886</v>
       </c>
       <c r="C47">
-        <v>-66.66167613942524</v>
+        <v>-67.36224096423398</v>
       </c>
       <c r="D47">
-        <v>70.91448458669721</v>
+        <v>70.97657566320359</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.007833333333333329</v>
       </c>
       <c r="B48">
-        <v>-4.200111002559543</v>
+        <v>-4.306098898588379</v>
       </c>
       <c r="C48">
-        <v>-64.40650852140524</v>
+        <v>-64.37661484020529</v>
       </c>
       <c r="D48">
-        <v>70.94977731551405</v>
+        <v>70.23006142023559</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.007999999999999997</v>
       </c>
       <c r="B49">
-        <v>-12.41923498309719</v>
+        <v>-12.80563870179288</v>
       </c>
       <c r="C49">
-        <v>-60.29155428036032</v>
+        <v>-59.1223521759167</v>
       </c>
       <c r="D49">
-        <v>68.0594397434655</v>
+        <v>67.42022254184657</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.008166666666666664</v>
       </c>
       <c r="B50">
-        <v>-22.6180574385372</v>
+        <v>-22.98522393488642</v>
       </c>
       <c r="C50">
-        <v>-49.58915037440809</v>
+        <v>-51.14061514031321</v>
       </c>
       <c r="D50">
-        <v>64.07133449185153</v>
+        <v>65.00317402993284</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.008333333333333331</v>
       </c>
       <c r="B51">
-        <v>-29.53741544661007</v>
+        <v>-29.01566492979957</v>
       </c>
       <c r="C51">
-        <v>-42.31637664194751</v>
+        <v>-42.58684127423169</v>
       </c>
       <c r="D51">
-        <v>67.75466437915607</v>
+        <v>66.89569231412661</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.008499999999999999</v>
       </c>
       <c r="B52">
-        <v>-31.3680657391055</v>
+        <v>-31.32282686086077</v>
       </c>
       <c r="C52">
-        <v>-37.81651128985681</v>
+        <v>-37.39115228019354</v>
       </c>
       <c r="D52">
-        <v>69.07087841286328</v>
+        <v>68.44165232613129</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.008666666666666666</v>
       </c>
       <c r="B53">
-        <v>-33.2071486403869</v>
+        <v>-34.08456141185845</v>
       </c>
       <c r="C53">
-        <v>-35.6152919483696</v>
+        <v>-35.76209221814647</v>
       </c>
       <c r="D53">
-        <v>69.7530569928427</v>
+        <v>70.97720118746886</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.008833333333333334</v>
       </c>
       <c r="B54">
-        <v>-35.40243574691917</v>
+        <v>-35.70525382366199</v>
       </c>
       <c r="C54">
-        <v>-33.54299250096324</v>
+        <v>-34.11214950867478</v>
       </c>
       <c r="D54">
-        <v>69.88405947668954</v>
+        <v>71.05573013483883</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.009000000000000001</v>
       </c>
       <c r="B55">
-        <v>-37.67278920748116</v>
+        <v>-37.43097160728071</v>
       </c>
       <c r="C55">
-        <v>-31.11305197979766</v>
+        <v>-31.37416696729831</v>
       </c>
       <c r="D55">
-        <v>68.56312205538669</v>
+        <v>68.76250311718948</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.009166666666666668</v>
       </c>
       <c r="B56">
-        <v>-42.88323749097766</v>
+        <v>-42.58061547605399</v>
       </c>
       <c r="C56">
-        <v>-29.71592174019474</v>
+        <v>-29.11232402154046</v>
       </c>
       <c r="D56">
-        <v>68.79189721532006</v>
+        <v>67.20921499884642</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.009333333333333336</v>
       </c>
       <c r="B57">
-        <v>-50.40937687987829</v>
+        <v>-51.20056015761293</v>
       </c>
       <c r="C57">
-        <v>-22.18866464735001</v>
+        <v>-23.02366722136518</v>
       </c>
       <c r="D57">
-        <v>64.84029824195544</v>
+        <v>65.23841017943161</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.009500000000000003</v>
       </c>
       <c r="B58">
-        <v>-59.02968737214132</v>
+        <v>-58.93326818797757</v>
       </c>
       <c r="C58">
-        <v>-12.27382680717162</v>
+        <v>-12.91684697904527</v>
       </c>
       <c r="D58">
-        <v>67.15354788921358</v>
+        <v>67.41366689560127</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.009666666666666671</v>
       </c>
       <c r="B59">
-        <v>-65.14939782665876</v>
+        <v>-64.31083071454999</v>
       </c>
       <c r="C59">
-        <v>-4.217804097003953</v>
+        <v>-4.382737186983121</v>
       </c>
       <c r="D59">
-        <v>70.87295387029479</v>
+        <v>70.05033857118156</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.009833333333333338</v>
       </c>
       <c r="B60">
-        <v>-66.308519957866</v>
+        <v>-67.2965960766888</v>
       </c>
       <c r="C60">
-        <v>-1.117556900785549</v>
+        <v>-0.8109654166080227</v>
       </c>
       <c r="D60">
-        <v>70.40063909147521</v>
+        <v>70.68936266303797</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.01000000000000001</v>
       </c>
       <c r="B61">
-        <v>-69.941964975506</v>
+        <v>-70.93649004147962</v>
       </c>
       <c r="C61">
-        <v>-0.01871235185330056</v>
+        <v>0.01295674044762829</v>
       </c>
       <c r="D61">
-        <v>70.17380362161839</v>
+        <v>70.87591376653401</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.01016666666666667</v>
       </c>
       <c r="B62">
-        <v>-70.53401259572685</v>
+        <v>-70.76647159719722</v>
       </c>
       <c r="C62">
-        <v>0.9870400745312646</v>
+        <v>0.7708068215023234</v>
       </c>
       <c r="D62">
-        <v>66.67382778037003</v>
+        <v>67.32904609824884</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.01033333333333334</v>
       </c>
       <c r="B63">
-        <v>-71.05850493203732</v>
+        <v>-70.07208878515283</v>
       </c>
       <c r="C63">
-        <v>4.094282210724415</v>
+        <v>4.25729102904282</v>
       </c>
       <c r="D63">
-        <v>64.55559823033524</v>
+        <v>64.36935130859793</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.01050000000000001</v>
       </c>
       <c r="B64">
-        <v>-68.44793515016404</v>
+        <v>-67.60626908988922</v>
       </c>
       <c r="C64">
-        <v>12.35496708602596</v>
+        <v>12.74692528912477</v>
       </c>
       <c r="D64">
-        <v>60.26385930869725</v>
+        <v>59.24673671329165</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.01066666666666667</v>
       </c>
       <c r="B65">
-        <v>-64.57897297351617</v>
+        <v>-65.27003146850213</v>
       </c>
       <c r="C65">
-        <v>22.39561257826123</v>
+        <v>23.00641855929486</v>
       </c>
       <c r="D65">
-        <v>49.65035828991188</v>
+        <v>51.18656791423121</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.01083333333333334</v>
       </c>
       <c r="B66">
-        <v>-68.15305572837825</v>
+        <v>-67.07160960105561</v>
       </c>
       <c r="C66">
-        <v>29.4873852201448</v>
+        <v>29.05296901235672</v>
       </c>
       <c r="D66">
-        <v>42.51154946846761</v>
+        <v>42.59104772548955</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.01100000000000001</v>
       </c>
       <c r="B67">
-        <v>-69.04181862583434</v>
+        <v>-68.57763091067832</v>
       </c>
       <c r="C67">
-        <v>31.41137907186842</v>
+        <v>31.30238503768729</v>
       </c>
       <c r="D67">
-        <v>37.98660813815525</v>
+        <v>37.43842381994364</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.01116666666666668</v>
       </c>
       <c r="B68">
-        <v>-69.75501564229917</v>
+        <v>-70.99504247484076</v>
       </c>
       <c r="C68">
-        <v>33.40472605305914</v>
+        <v>34.09807811479885</v>
       </c>
       <c r="D68">
-        <v>35.59785773290844</v>
+        <v>35.79266013304716</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.01133333333333334</v>
       </c>
       <c r="B69">
-        <v>-70.17935280439329</v>
+        <v>-70.96872320556744</v>
       </c>
       <c r="C69">
-        <v>35.60196371681368</v>
+        <v>35.7224890651528</v>
       </c>
       <c r="D69">
-        <v>33.47273970319642</v>
+        <v>34.0700643813692</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.01150000000000001</v>
       </c>
       <c r="B70">
-        <v>-68.81789844337465</v>
+        <v>-68.84296399117373</v>
       </c>
       <c r="C70">
-        <v>37.66816849403997</v>
+        <v>37.48314818330628</v>
       </c>
       <c r="D70">
-        <v>31.13510027933919</v>
+        <v>31.33283250275884</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.01166666666666668</v>
       </c>
       <c r="B71">
-        <v>-68.72006375597783</v>
+        <v>-67.37670334089448</v>
       </c>
       <c r="C71">
-        <v>42.66673490883916</v>
+        <v>42.60846578739763</v>
       </c>
       <c r="D71">
-        <v>29.81123380232598</v>
+        <v>29.12373159695558</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.01183333333333335</v>
       </c>
       <c r="B72">
-        <v>-64.51569793842826</v>
+        <v>-65.48692000541455</v>
       </c>
       <c r="C72">
-        <v>50.24625621705928</v>
+        <v>51.21669432971446</v>
       </c>
       <c r="D72">
-        <v>22.47072225575394</v>
+        <v>23.05597494668049</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.01200000000000001</v>
       </c>
       <c r="B73">
-        <v>-67.18763199882791</v>
+        <v>-67.7132429287736</v>
       </c>
       <c r="C73">
-        <v>59.19073345634394</v>
+        <v>59.06044299968161</v>
       </c>
       <c r="D73">
-        <v>12.35284980312598</v>
+        <v>12.89297506068987</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.01216666666666668</v>
       </c>
       <c r="B74">
-        <v>-71.27594354908042</v>
+        <v>-70.17176344745094</v>
       </c>
       <c r="C74">
-        <v>65.29593065073558</v>
+        <v>64.41242316044399</v>
       </c>
       <c r="D74">
-        <v>4.114759612270924</v>
+        <v>4.330018628062871</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.01233333333333335</v>
       </c>
       <c r="B75">
-        <v>-70.77608908519045</v>
+        <v>-70.6962763954496</v>
       </c>
       <c r="C75">
-        <v>66.40164269668522</v>
+        <v>67.35954611389275</v>
       </c>
       <c r="D75">
-        <v>1.017816592709941</v>
+        <v>0.7794814913075765</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.01250000000000002</v>
       </c>
       <c r="B76">
-        <v>-69.9427223926112</v>
+        <v>-70.82006320504924</v>
       </c>
       <c r="C76">
-        <v>69.8783374659228</v>
+        <v>70.89521372473526</v>
       </c>
       <c r="D76">
-        <v>-0.0211214374708224</v>
+        <v>-0.02701739205718257</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.01266666666666668</v>
       </c>
       <c r="B77">
-        <v>-65.97165800730116</v>
+        <v>-67.22206893946516</v>
       </c>
       <c r="C77">
-        <v>70.38550968188444</v>
+        <v>70.74248635477475</v>
       </c>
       <c r="D77">
-        <v>-0.9384356727676346</v>
+        <v>-0.7854232093763847</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.01283333333333335</v>
       </c>
       <c r="B78">
-        <v>-64.23388267455115</v>
+        <v>-64.22914980866841</v>
       </c>
       <c r="C78">
-        <v>70.99547288104476</v>
+        <v>70.07887965259177</v>
       </c>
       <c r="D78">
-        <v>-4.014929906743931</v>
+        <v>-4.277899950618364</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.01300000000000002</v>
       </c>
       <c r="B79">
-        <v>-60.47817656821483</v>
+        <v>-59.14079004029085</v>
       </c>
       <c r="C79">
-        <v>68.33642574122797</v>
+        <v>67.57331905179447</v>
       </c>
       <c r="D79">
-        <v>-12.34879159713279</v>
+        <v>-12.72420014238884</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.01316666666666669</v>
       </c>
       <c r="B80">
-        <v>-49.73587705600885</v>
+        <v>-51.17678518167079</v>
       </c>
       <c r="C80">
-        <v>64.23158504287998</v>
+        <v>65.20966085000359</v>
       </c>
       <c r="D80">
-        <v>-22.42565966161278</v>
+        <v>-22.96128802917408</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.01333333333333335</v>
       </c>
       <c r="B81">
-        <v>-42.27890559271003</v>
+        <v>-42.61367991825194</v>
       </c>
       <c r="C81">
-        <v>67.88327429991826</v>
+        <v>66.99241306838152</v>
       </c>
       <c r="D81">
-        <v>-29.45368835382198</v>
+        <v>-29.02490547239872</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.01350000000000002</v>
       </c>
       <c r="B82">
-        <v>-37.78923823160835</v>
+        <v>-37.42674421532089</v>
       </c>
       <c r="C82">
-        <v>69.10137648607137</v>
+        <v>68.60695059595156</v>
       </c>
       <c r="D82">
-        <v>-31.44307749219852</v>
+        <v>-31.32765809900115</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.01366666666666669</v>
       </c>
       <c r="B83">
-        <v>-35.61472974431116</v>
+        <v>-35.76220484175719</v>
       </c>
       <c r="C83">
-        <v>69.73616971881516</v>
+        <v>71.02330072910377</v>
       </c>
       <c r="D83">
-        <v>-33.34144806450709</v>
+        <v>-34.1094942053137</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.01383333333333336</v>
       </c>
       <c r="B84">
-        <v>-33.62816109104605</v>
+        <v>-34.12001690814196</v>
       </c>
       <c r="C84">
-        <v>70.04198594123133</v>
+        <v>71.07004019735901</v>
       </c>
       <c r="D84">
-        <v>-35.55425623188363</v>
+        <v>-35.76631391188523</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.01400000000000002</v>
       </c>
       <c r="B85">
-        <v>-31.18138898823883</v>
+        <v>-31.33703938888163</v>
       </c>
       <c r="C85">
-        <v>68.69923225978172</v>
+        <v>68.68263780070656</v>
       </c>
       <c r="D85">
-        <v>-37.66104637088208</v>
+        <v>-37.4326318392168</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.01416666666666669</v>
       </c>
       <c r="B86">
-        <v>-29.84026619700514</v>
+        <v>-29.11345693743517</v>
       </c>
       <c r="C86">
-        <v>68.99986270593293</v>
+        <v>67.22823674563888</v>
       </c>
       <c r="D86">
-        <v>-42.86355060787478</v>
+        <v>-42.58193556627391</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.01433333333333336</v>
       </c>
       <c r="B87">
-        <v>-22.29719206911049</v>
+        <v>-23.0545775504408</v>
       </c>
       <c r="C87">
-        <v>64.74474279846756</v>
+        <v>65.34114808710329</v>
       </c>
       <c r="D87">
-        <v>-50.43599412229441</v>
+        <v>-51.23485081649726</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.01450000000000003</v>
       </c>
       <c r="B88">
-        <v>-12.27394644995633</v>
+        <v>-12.95617362934043</v>
       </c>
       <c r="C88">
-        <v>67.29039095172301</v>
+        <v>67.47285411340957</v>
       </c>
       <c r="D88">
-        <v>-59.28146829231082</v>
+        <v>-59.06969219611355</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.01466666666666669</v>
       </c>
       <c r="B89">
-        <v>-4.104972157061987</v>
+        <v>-4.399117120821167</v>
       </c>
       <c r="C89">
-        <v>71.24567182079842</v>
+        <v>70.06317906248533</v>
       </c>
       <c r="D89">
-        <v>-65.25137300005758</v>
+        <v>-64.45944529009519</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.01483333333333336</v>
       </c>
       <c r="B90">
-        <v>-1.032434548776107</v>
+        <v>-0.8162680720640025</v>
       </c>
       <c r="C90">
-        <v>70.42836543822477</v>
+        <v>70.76345774363239</v>
       </c>
       <c r="D90">
-        <v>-66.03199012904557</v>
+        <v>-67.50037184656166</v>
       </c>
     </row>
   </sheetData>
